--- a/public/data/lime/lime_table_sierra_leone.xlsx
+++ b/public/data/lime/lime_table_sierra_leone.xlsx
@@ -1234,13 +1234,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="E2" t="n">
-        <v>1.56</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.34</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.81</v>
+        <v>3.41</v>
       </c>
       <c r="K2" t="n">
-        <v>2.72</v>
+        <v>1.92</v>
       </c>
       <c r="L2" t="n">
-        <v>1.54</v>
+        <v>0.7</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1281,13 +1281,13 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>7.03</v>
+        <v>5.98</v>
       </c>
       <c r="E3" t="n">
-        <v>5.65</v>
+        <v>3.41</v>
       </c>
       <c r="F3" t="n">
-        <v>4.04</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.65</v>
+        <v>6.82</v>
       </c>
       <c r="K3" t="n">
-        <v>6.75</v>
+        <v>3.16</v>
       </c>
       <c r="L3" t="n">
-        <v>4.65</v>
+        <v>0.71</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1328,13 +1328,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>4.01</v>
+        <v>3.01</v>
       </c>
       <c r="E4" t="n">
-        <v>2.75</v>
+        <v>0.73</v>
       </c>
       <c r="F4" t="n">
-        <v>1.34</v>
+        <v>0.07</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1346,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.02</v>
+        <v>3.37</v>
       </c>
       <c r="K4" t="n">
-        <v>2.68</v>
+        <v>1.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>0.2</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>4.35</v>
+        <v>3.73</v>
       </c>
       <c r="E5" t="n">
-        <v>3.08</v>
+        <v>1.87</v>
       </c>
       <c r="F5" t="n">
-        <v>1.74</v>
+        <v>0.62</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1393,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8.72</v>
+        <v>6.58</v>
       </c>
       <c r="K5" t="n">
-        <v>6.31</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>3.64</v>
+        <v>0.13</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1422,13 +1422,13 @@
         <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>4.27</v>
+        <v>3.74</v>
       </c>
       <c r="E6" t="n">
-        <v>3.09</v>
+        <v>1.95</v>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>0.49</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>2.79</v>
       </c>
       <c r="K6" t="n">
-        <v>2.17</v>
+        <v>1.18</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1469,13 +1469,13 @@
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>3.84</v>
+        <v>3.27</v>
       </c>
       <c r="E7" t="n">
-        <v>2.54</v>
+        <v>1.37</v>
       </c>
       <c r="F7" t="n">
-        <v>1.11</v>
+        <v>0.17</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.92</v>
+        <v>3.43</v>
       </c>
       <c r="K7" t="n">
-        <v>2.73</v>
+        <v>1.71</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>0.53</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1516,13 +1516,13 @@
         <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>3.98</v>
+        <v>3.47</v>
       </c>
       <c r="E8" t="n">
-        <v>2.84</v>
+        <v>1.76</v>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>0.56</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.31</v>
+        <v>2.89</v>
       </c>
       <c r="K8" t="n">
-        <v>2.27</v>
+        <v>1.38</v>
       </c>
       <c r="L8" t="n">
-        <v>1.1</v>
+        <v>0.44</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
         <v>97</v>
       </c>
       <c r="D9" t="n">
-        <v>4.44</v>
+        <v>4.14</v>
       </c>
       <c r="E9" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="F9" t="n">
-        <v>2.62</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.36</v>
+        <v>4.02</v>
       </c>
       <c r="K9" t="n">
-        <v>3.47</v>
+        <v>2.72</v>
       </c>
       <c r="L9" t="n">
-        <v>2.42</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1610,37 +1610,37 @@
         <v>98</v>
       </c>
       <c r="D10" t="n">
-        <v>4.53</v>
+        <v>3.5</v>
       </c>
       <c r="E10" t="n">
-        <v>3.44</v>
+        <v>1.57</v>
       </c>
       <c r="F10" t="n">
-        <v>2.17</v>
+        <v>0.51</v>
       </c>
       <c r="G10" t="n">
-        <v>4.43</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>3.76</v>
       </c>
       <c r="K10" t="n">
-        <v>4.83</v>
+        <v>0.49</v>
       </c>
       <c r="L10" t="n">
-        <v>3.01</v>
+        <v>0.09</v>
       </c>
       <c r="M10" t="n">
-        <v>4.63</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>99</v>
       </c>
       <c r="D11" t="n">
-        <v>4.29</v>
+        <v>3.99</v>
       </c>
       <c r="E11" t="n">
-        <v>3.32</v>
+        <v>2.68</v>
       </c>
       <c r="F11" t="n">
-        <v>2.21</v>
+        <v>1.43</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1675,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="K11" t="n">
-        <v>2.34</v>
+        <v>1.71</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1704,37 +1704,37 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>3.88</v>
+        <v>3.03</v>
       </c>
       <c r="E12" t="n">
-        <v>2.8</v>
+        <v>1.21</v>
       </c>
       <c r="F12" t="n">
-        <v>1.54</v>
+        <v>0.27</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.33</v>
+        <v>3.89</v>
       </c>
       <c r="K12" t="n">
-        <v>4.07</v>
+        <v>1.31</v>
       </c>
       <c r="L12" t="n">
-        <v>2.61</v>
+        <v>0.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1751,13 +1751,13 @@
         <v>101</v>
       </c>
       <c r="D13" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="E13" t="n">
-        <v>2.43</v>
+        <v>1.47</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2</v>
+        <v>0.37</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.08</v>
+        <v>3.53</v>
       </c>
       <c r="K13" t="n">
-        <v>2.94</v>
+        <v>1.76</v>
       </c>
       <c r="L13" t="n">
-        <v>1.62</v>
+        <v>0.41</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>5.45</v>
+        <v>3.91</v>
       </c>
       <c r="E14" t="n">
-        <v>4.05</v>
+        <v>1.01</v>
       </c>
       <c r="F14" t="n">
-        <v>2.44</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.52</v>
+        <v>3.17</v>
       </c>
       <c r="K14" t="n">
-        <v>3.07</v>
+        <v>0.73</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>0.02</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1845,13 +1845,13 @@
         <v>104</v>
       </c>
       <c r="D15" t="n">
-        <v>4.68</v>
+        <v>3.13</v>
       </c>
       <c r="E15" t="n">
-        <v>3.16</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5.65</v>
+        <v>3.93</v>
       </c>
       <c r="K15" t="n">
-        <v>3.91</v>
+        <v>0.31</v>
       </c>
       <c r="L15" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
